--- a/数据源/考勤.xlsx
+++ b/数据源/考勤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\芯三代\Sicentury\Documents\IPO\工时自动分配\数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8D0647-CF31-4BE8-8AA6-EF51E9923899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ABC760-0CFB-4D75-B99A-2E7790F2E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{8314F3AF-444D-44F9-B14C-857D1F3DF4B8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="11" activeTab="22" xr2:uid="{8314F3AF-444D-44F9-B14C-857D1F3DF4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="202201" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25048" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25048" uniqueCount="480">
   <si>
     <t>序号</t>
   </si>
@@ -2071,6 +2071,10 @@
   <si>
     <t>休息_x000D_
 加班：7.00小时</t>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4582,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F976CB-9386-4258-AFCB-509C703BB755}">
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -29779,10 +29783,10 @@
   <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -32641,10 +32645,10 @@
         <v>41</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>39</v>
@@ -34788,8 +34792,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D267B9-457E-4FE2-B99E-A7303BDE797E}">
   <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -37651,19 +37657,19 @@
         <v>39</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AF26" s="5" t="s">
         <v>39</v>
@@ -37672,16 +37678,16 @@
         <v>39</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -37926,10 +37932,10 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -40656,7 +40662,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>39</v>
@@ -40665,16 +40671,16 @@
         <v>39</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>41</v>
@@ -41054,10 +41060,10 @@
   <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -43889,13 +43895,13 @@
         <v>41</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>39</v>
@@ -43904,19 +43910,19 @@
         <v>39</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>39</v>
@@ -43925,19 +43931,19 @@
         <v>39</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AH26" s="5" t="s">
         <v>39</v>
@@ -43946,10 +43952,10 @@
         <v>39</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -44380,8 +44386,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2B7456-90B4-417F-A756-742557EE7AA7}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47108,13 +47116,13 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>39</v>
@@ -47147,16 +47155,16 @@
         <v>41</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>39</v>
@@ -47165,19 +47173,19 @@
         <v>39</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AE26" s="5" t="s">
         <v>39</v>
@@ -47186,16 +47194,16 @@
         <v>39</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>41</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:36" s="8" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
